--- a/ADICIONALES/RANGOS.xlsx
+++ b/ADICIONALES/RANGOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Nueva carpeta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\projects\frontend\opdelsol_frontend\ADICIONALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF539C0F-1E14-4E75-938B-780BD403160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E220080C-6A85-4654-97CB-ED7C719CE9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="3735" windowWidth="15375" windowHeight="7785" xr2:uid="{158446B8-2B8F-4345-993E-64706557EB6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{158446B8-2B8F-4345-993E-64706557EB6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>SOFLENS66</t>
   </si>
@@ -79,6 +77,9 @@
   </si>
   <si>
     <t>RANGO</t>
+  </si>
+  <si>
+    <t>10;20;60;70;80;90;100;110;120;160;170;180</t>
   </si>
 </sst>
 </file>
@@ -431,24 +432,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C3E3A9-3980-49A0-9BF2-99F687CAF4FF}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="133" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -456,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -464,15 +466,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -480,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -488,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -496,7 +501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -504,7 +509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -512,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -520,7 +525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>

--- a/ADICIONALES/RANGOS.xlsx
+++ b/ADICIONALES/RANGOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\projects\frontend\opdelsol_frontend\ADICIONALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\optica_frontend\opdelsol_frontend\ADICIONALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E220080C-6A85-4654-97CB-ED7C719CE9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D774E792-5C58-49C1-BA67-3B9F2A184A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{158446B8-2B8F-4345-993E-64706557EB6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{158446B8-2B8F-4345-993E-64706557EB6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
